--- a/data/processed/dictionary.xlsx
+++ b/data/processed/dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadshakkour/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadshakkour/Desktop/OneDrive_1_3-3-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE4156E-C1FD-0842-8696-0CEAB0CC7F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CB839-028E-2448-81F1-07B2284E95A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0AE0EF16-7B45-E246-A546-BADD086E1612}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{0AE0EF16-7B45-E246-A546-BADD086E1612}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,22 +35,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>variable_name</t>
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>A running unique id for each facility</t>
+  </si>
+  <si>
+    <t>GW1</t>
+  </si>
+  <si>
+    <t>GW2</t>
+  </si>
+  <si>
+    <t>GW3</t>
+  </si>
+  <si>
+    <t>GS1</t>
+  </si>
+  <si>
+    <t>GS2</t>
+  </si>
+  <si>
+    <t>GS3</t>
+  </si>
+  <si>
+    <t>GS4</t>
+  </si>
+  <si>
+    <t>GS5</t>
+  </si>
+  <si>
+    <t>GS6</t>
+  </si>
+  <si>
+    <t>GH1</t>
+  </si>
+  <si>
+    <t>GH2</t>
+  </si>
+  <si>
+    <t>GWM1</t>
+  </si>
+  <si>
+    <t>GWM2</t>
+  </si>
+  <si>
+    <t>GWM3</t>
+  </si>
+  <si>
+    <t>GC1</t>
+  </si>
+  <si>
+    <t>GC2</t>
+  </si>
+  <si>
+    <t>Have all staff responsible for cleaning received training?</t>
+  </si>
+  <si>
+    <t>Are cleaning protocols available?</t>
+  </si>
+  <si>
+    <t>How does this facility usually treat/dispose of sharps waste?</t>
+  </si>
+  <si>
+    <t>How does this facility usually treat/dispose of infectious waste?</t>
+  </si>
+  <si>
+    <t>Is waste correctly segregated into at least threelabelled bins in the consultation area?</t>
+  </si>
+  <si>
+    <t>Is there a functional handwashing facility at one ormore toilets on the day of the survey?</t>
+  </si>
+  <si>
+    <t>Is there a functional hand hygiene facility at points ofcare on the day of the survey?</t>
+  </si>
+  <si>
+    <t>Are there toilets that are accessible for people with limited mobility?</t>
+  </si>
+  <si>
+    <t>Are there toilets that have menstrual hygiene facilities?</t>
+  </si>
+  <si>
+    <t>Are there toilets that are in sex-separated or gender-neutral rooms?</t>
+  </si>
+  <si>
+    <t>Are there toilets that dedicated for staff?</t>
+  </si>
+  <si>
+    <t>Is at least one toilet usable (available, functional, private)?</t>
+  </si>
+  <si>
+    <t>What type of toilets/latrines are at the facility for patients?</t>
+  </si>
+  <si>
+    <t>Is water available from the main water supply at the time of the survey?</t>
+  </si>
+  <si>
+    <t>Where is the main water supply for the facility located?</t>
+  </si>
+  <si>
+    <t>What is the main water supply for the facility?</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://washdata.org/reports/jmp-2018-core-questions-and-indicators-wash-in-health-care-facilities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,13 +189,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB99641-2B1B-2748-B6C0-13DB6AD0E061}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,7 +528,154 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{C04BD095-4455-A34D-B56E-F330071DC6B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>